--- a/Neha Project/Project Solar Care/Docs/Eval_mat.xlsx
+++ b/Neha Project/Project Solar Care/Docs/Eval_mat.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
   <si>
     <t>MAE</t>
   </si>
@@ -47,6 +47,21 @@
   <si>
     <t>SARIMA</t>
   </si>
+  <si>
+    <t>Temp</t>
+  </si>
+  <si>
+    <t>Humi</t>
+  </si>
+  <si>
+    <t>temp</t>
+  </si>
+  <si>
+    <t>dew</t>
+  </si>
+  <si>
+    <t>humidity</t>
+  </si>
 </sst>
 </file>
 
@@ -61,12 +76,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -81,8 +102,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -657,7 +679,1106 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MAE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$18:$F$18</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>AR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ARMA</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ARIMA</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SARIMA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$19:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E4F3-4643-AEA9-E88CFA229297}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MSE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$18:$F$18</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>AR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ARMA</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ARIMA</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SARIMA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$20:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>17.489999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.69</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E4F3-4643-AEA9-E88CFA229297}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RMSE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$18:$F$18</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>AR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ARMA</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ARIMA</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SARIMA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$21:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E4F3-4643-AEA9-E88CFA229297}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MAPE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$18:$F$18</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>AR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ARMA</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ARIMA</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SARIMA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$22:$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.85</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.82</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E4F3-4643-AEA9-E88CFA229297}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1638765039"/>
+        <c:axId val="1707390591"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1638765039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1707390591"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1707390591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1638765039"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>temp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$35:$A$38</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>MAE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MSE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>RMSE</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MAPE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$35:$B$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7C06-4770-9FA0-B491D91CC8CA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dew</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$35:$A$38</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>MAE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MSE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>RMSE</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MAPE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$35:$C$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.93</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7C06-4770-9FA0-B491D91CC8CA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>humidity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$35:$A$38</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>MAE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MSE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>RMSE</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MAPE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$35:$D$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.69</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.82</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7C06-4770-9FA0-B491D91CC8CA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1638779487"/>
+        <c:axId val="1638773663"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1638779487"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1638773663"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1638773663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1638779487"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1200,6 +2321,1012 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1227,6 +3354,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1498,15 +3685,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="R39" sqref="R39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
@@ -1601,6 +3791,181 @@
       </c>
       <c r="F5">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>3.44</v>
+      </c>
+      <c r="C19">
+        <v>9.67</v>
+      </c>
+      <c r="D19">
+        <v>4.28</v>
+      </c>
+      <c r="E19">
+        <v>3.01</v>
+      </c>
+      <c r="F19">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>17.489999999999998</v>
+      </c>
+      <c r="C20" s="1">
+        <v>30.04</v>
+      </c>
+      <c r="D20">
+        <v>25.14</v>
+      </c>
+      <c r="E20">
+        <v>16.14</v>
+      </c>
+      <c r="F20">
+        <v>15.69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>4.18</v>
+      </c>
+      <c r="C21">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="D21">
+        <v>5.01</v>
+      </c>
+      <c r="E21">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="F21">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C22">
+        <v>12.12</v>
+      </c>
+      <c r="D22">
+        <v>5.33</v>
+      </c>
+      <c r="E22">
+        <v>3.85</v>
+      </c>
+      <c r="F22">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C26" s="1">
+        <v>99.04</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>0.37</v>
+      </c>
+      <c r="C35">
+        <v>0.48</v>
+      </c>
+      <c r="D35">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>0.2</v>
+      </c>
+      <c r="C36">
+        <v>0.4</v>
+      </c>
+      <c r="D36">
+        <v>15.69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37">
+        <v>0.44</v>
+      </c>
+      <c r="C37">
+        <v>0.63</v>
+      </c>
+      <c r="D37">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38">
+        <v>1.32</v>
+      </c>
+      <c r="C38">
+        <v>1.93</v>
+      </c>
+      <c r="D38">
+        <v>3.82</v>
       </c>
     </row>
   </sheetData>
